--- a/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -494,6 +494,11 @@
       <c r="L2" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -546,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -567,6 +572,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -619,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -640,6 +650,11 @@
       <c r="L4" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -692,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -713,6 +728,11 @@
       <c r="L5" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -765,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>14/06/2022 00:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -786,6 +806,11 @@
       <c r="L6" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>14/06/2022 00:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -838,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>14/06/2022 00:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -859,6 +884,11 @@
       <c r="L7" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>14/06/2022 00:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -911,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -932,6 +962,11 @@
       <c r="L8" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -984,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1005,6 +1040,11 @@
       <c r="L9" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1057,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1078,6 +1118,11 @@
       <c r="L10" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1130,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1151,6 +1196,11 @@
       <c r="L11" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1203,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1224,6 +1274,11 @@
       <c r="L12" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1276,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1297,6 +1352,11 @@
       <c r="L13" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1349,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1370,6 +1430,11 @@
       <c r="L14" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1422,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1443,6 +1508,11 @@
       <c r="L15" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1495,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1516,6 +1586,11 @@
       <c r="L16" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1568,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2022-07-27</t>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1589,6 +1664,11 @@
       <c r="L17" t="inlineStr">
         <is>
           <t>Natural</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>15/06/2022 00:00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">

--- a/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
@@ -790,7 +790,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>sample gil-3</t>
+          <t>sample gil-3, extra metadata parametrs measured 18-06-2022</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sample gil-4</t>
+          <t>sample gil-4, extra metadata parametrs measured 18-06-2022</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">

--- a/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -707,7 +707,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>14/06/2022 00:00</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14/06/2022 00:00</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>14/06/2022 00:00</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14/06/2022 00:00</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>15/06/2022 00:00</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">

--- a/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
@@ -511,11 +511,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -589,11 +584,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -667,11 +657,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -745,11 +730,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -823,11 +803,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -901,11 +876,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -979,11 +949,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1057,11 +1022,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1135,11 +1095,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1213,11 +1168,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1291,11 +1241,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1369,11 +1314,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1447,11 +1387,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1525,11 +1460,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1603,11 +1533,6 @@
           <t>Harbours</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1677,11 +1602,6 @@
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Harbours</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>Harbours</t>
         </is>

--- a/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P18_1/P18_1_minimal_metadata.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -508,7 +508,12 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -536,7 +541,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,12 +566,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -581,7 +586,12 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -609,7 +619,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -634,12 +644,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -654,7 +664,12 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -682,7 +697,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -707,12 +722,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -727,7 +742,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -755,7 +775,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -780,12 +800,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -800,7 +820,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -828,7 +853,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -853,12 +878,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -873,7 +898,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -901,7 +931,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -926,12 +956,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -946,7 +976,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -974,7 +1009,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -999,12 +1034,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1019,7 +1054,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1087,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1072,12 +1112,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1092,7 +1132,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1165,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1145,12 +1190,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1165,7 +1210,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1243,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1218,12 +1268,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1238,7 +1288,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1321,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1291,12 +1346,12 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1311,7 +1366,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1399,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1364,12 +1424,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1384,7 +1444,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1477,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1437,12 +1502,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1457,7 +1522,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1555,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1510,12 +1580,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1530,7 +1600,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1633,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1583,12 +1658,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Sediment</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Natural</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1603,7 +1678,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Harbours</t>
+          <t>Flowing saltwater</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Harbour, marina scraped-off biofilm</t>
         </is>
       </c>
     </row>
